--- a/data/qna/신소재공학부.xlsx
+++ b/data/qna/신소재공학부.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,10 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>어디가 괜찮을까요</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>울산대 첨단소재공학 vs 동의대 신소재공학or 화힉공학</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>울산대 비메이저가 동의대랑 비슷하다는 건 울산대가 더 입결이 높고 좋은 학교라는 뜻</t>
         </is>
@@ -460,10 +480,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>동의대학교 신소재 공학부 4.28인데 들어갈 수 있을까요?</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>답변해주시면 감사하겠습니다</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU!
 동의대학교 입학홍보대사 조호준 입니다!
@@ -484,10 +514,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>동의대 신소재 vs 경상대 무용학과</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>둘다 붙었는데 어딜 가야 할까요 경상대 가면 이공계열로 무조건 전과 생각하고 있긴한데 혹시라도 전과 못해버릴까봐 그게 걱정 돼서요  ㅠㅠ 어디 가는게 낫다고 봐요?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>무조건 동의대 아님…? 왜 고민해요?</t>
         </is>
@@ -496,10 +536,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>동의대 신소재 vs 경성대 신소재</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>타학교 언급 죄송합니다 ㅜㅜ
+어디가 더 좋을까요?? 둘 다 붙을 것 같은데 너무 고민이 돼서요ㅜㅜ 집은 둘 다 멀어요!!</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>동의대 오세용 공대 계열은 동의대가 나은 것 같아요!</t>
         </is>
@@ -508,10 +559,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>교과지역인재전형 자기소개서</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>교과로 지역인재전형 넣으려고 하는데 자기소개서 써야하나요?? 창원도 지역인재 가능하죠..?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다!
 동의대학교는 자기소개서를 보지 않으며, 부산, 울산, 경남지역 학생들은 모두 지역인재교과(종합)전형이 가능합니다. 따라서 창원도 지역인재교과(종합)전형이 가능합니다.
@@ -522,10 +583,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>신소재공학부 교과 지원</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>신소재공학부 교과로 지원하면 내신 4.5인데 들어갈 수 있나요 ㅠ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다!
 &amp;lt; 22학년도 신소재공학부 전형결과 &gt;
@@ -538,10 +609,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>반수하기 쉬운가요?</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1학년 1학기 적당히 공부하면서 수능 공부하기 쉬울까요...? 학고 받으면서 수능 준비해야할까요 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>저랑 같은학과 같은 고민이네요 저는 1학기 1학년 공부하면서 휴학하고 나머지 반개월동안 공부했어요 적당히 공부하면서 하셔도 될꺼같아요 부담스럽지는 않더라구요</t>
         </is>
@@ -550,10 +631,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>동의 신소재 합격 가능할까요</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>동의 내신산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요 
+정시등급은 몇 인가여 신소재 학과는</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>전 정시로 4.4.3.3.5 합격했습니다!!
 국/수(가)/영/물1/지1</t>
@@ -563,204 +655,88 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>혹시 취업..</t>
+          <t>신소재공학부</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>아니요 없어요
-없어요
-아니....없어요!!!!!!</t>
+          <t>표점</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>작년 제작년의 평균에 걸쳐있는 정도 인데 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>답변 없음</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>공대건물</t>
+          <t>신소재공학부</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>그냥 그래요,,좋지도 않고 막 구리지도 않고 -신소재학생-</t>
+          <t>문과가 가도 괜찮을까요??</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>사실 크게 맘이 없던 곳이었는데 최초합 받았더니 또 고민이 되네요ㅎㅎ... 물리는 진짜 아예 노베예요,,, 입학 전에 공부 조금이라도 하고 가는 게 나을까요??ㅠㅠㅠ
+그리고 경사는 다니다 보면 익숙해지겠져...?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>경사는 학교 고를때 볼 필요없지 않을까요??
+입결 인풋 아웃풋 같은 것을 더 따져봐야죠</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>들어가기전 해야할게 있을까요?</t>
+          <t>신소재공학부</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1학년 1학기 전공수업은 일반 물리, 일반 화학이라서 물리, 화학 공부해놓으시면 1학기 수업 편하게 들으실 수 있습니다</t>
+          <t>안녕하세요 교차지원 관련 질문입니다.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>제가 이번에 표점이 315점이 나오고 영어는 3이 나오게 되었습니다 작년도 점수대를 보니 표점 평균이 311(이과 가산점 포함) 이고 평균 영어 등급은 3.74입니다. 이정도면 가능하다고 봐도 될까요?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>영어말고 나머지 점수는 어떻게 되는데요 ?</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>알려주세요 😁</t>
+          <t>신소재공학부</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1. 두 과목다 배우는데 2,3,4학년 수업들으면 고등학교때 배운 물리, 화학과 많이 다르다는걸 느껴요!
-2. 항상 공부하는 친구들과 노는 친구들은 정해져 있었던 것 같아요ㅎㅎ
-3. 교수님들이 취업자리 많이 알선해주십니다!
-4. 7:3? 8:2?정도 같아요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>진출분야 알고 싶어요</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>아뇨 불가능합니다 탈출하세요~~~~~~~~~~~~~~</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>공부</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>서술형이랑 계산문제 한두개 정도 내십니당.
-저희 과는 실험수헙만 아니면 레포트 잘 없어요~
-있어도 계산문제 푸는 정도?
-학점 3.5는 생각보다 높은 학점이 아닙니다! 3.5이상이지만 토익 점수 없고 자격증 없는 사람들 많아요!
-저희과는 3,4학년때 자격증이나 토익 준비하는 학생이 많은 것 같아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>표점</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>선배님들 !!</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>통학이라면... 제일 가벼운 거 사세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>신소재공학부 어떤가요 ?</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>안녕하십니까 언제나 너의 곁에 WE - DEU!
-동의대학교 입학홍보대사 홍은주입니다💙
-우선 동의대학교 신소재공학부에 대해 소개해 드리겠습니다!
-국내 용접분야의 전문가들로 강사진을 구성하여 수준별 교육 프로그램을 통해 용접 전문가를 양성하는 것을 목표로 삼고 있습니다. 현장 전문 인력에 걸 맞는 실무교육을 위해 실습장을 구축하여 조선, 기계 및 자동차 등에 적용되능 모든 용접공정에 대한 실무 인력 양성이 가능합니다.
-교육과정에 대해 알려드리겠습니다!
-제조산업융합개론, 3D프린팅, 신소재공학개론, 기기분석학, ICT융합기술론, 코너스톤디자인, 신소재 공학 및 실험 등 입니다.
-그리고 우리 동의대학교에서 학부제도가 실시되고 있기 때문에3학년을 재학하기 전 전공을 선택해야 합니다. 신소재공학부에서 금속소재공학, 고분자소재공학, 전기전자소재공학으로 전공을 선택할 수 있습니다.
-따라서 각 전공마다 전공선택과정을 학습하고 실무심회, 융합심화가 진행됩니다.
-마지막으로 졸업 후 진로에 대해 알려드리겠습니다!
-금속소재 - 엔진 및 전력산업 자동차 및 자동차 부품 소재산업, 조선 및 조선기자재산업, 우주항공산업, 중공업, 제철 등으로 진출할 수 있습니다.
-고분자소재 - 연구 개발직, 품질관리 및 생산관리직, 공정기술직, 고분자 관련 산업체 및 도로관련 중견기업 등으로 진출할 수  있습니다.
-전기전자소개 - 반도체 및 전기•전자•정보통신 부품 산업, 태양전지와 수소연료전지 등의 에너지 및 전럭 산업, LED 및 규ㅏㅇ통신 부품•소재 산업 등으로 진출할 수 있습니다.
-더욱 궁금하신 것이 있으시면 카카오톡 오픈채팅 동의대학교 입학홍보대사 홍은주에게 질문해주세요! 친절하고 빠르게 답변해드리겠습니다.
-항상 응원하겠습니다!
-감사합니다💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>제가 물리랑 화학을 안 했는데요</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>물리 화학은 1학년 때 다시 배우긴하는데 겨울방학 시간날 때 ebs 물리1,2 화학1,2 한번 듣고 오면 이해하는데도 훨신 수월할 뿐만 아니라 학점도 잘 나올거라 생각합니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>신소재공학부의 장든점이 뭔가요??</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>정말 소재에 관심이 많다면 오시는거 추천드려용 
-저처럼 어중간한 생각으로 들어오지 마세요ㅠㅠ 
-이제4학년인데 아직 계획이 없어요</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>문과가 가도 괜찮을까요??</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>경사는 학교 고를때 볼 필요없지 않을까요??
-입결 인풋 아웃풋 같은 것을 더 따져봐야죠</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>화학, 물리공부</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>화학 물리 전혀 모르고 오셔도 교수님이 처음부터 수업하시기때문에 괜찮습니다 ! 저는 레이먼트창의 일반화학 책으로 수업했는데 다를 수 있으니 나중에 수업 계획서 참고하셔서 사는게 좋을거같아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>안녕하세요 교차지원 관련 질문입니다.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>영어말고 나머지 점수는 어떻게 되는데요 ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
           <t>동의대식 뽑아서 4.66 입니다</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>붙을 수 있을까요 ㅠㅠ 꼭 붙고 싶은데 가능할까요...</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>그정도면 본인 1,2,3학년등급 최소6등급대인데
 공부를 더하지 그랬어요
@@ -768,258 +744,315 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>선배님들 ㅠ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>제가 수능으로 지원해야 하는데 표준점수 별로  국어94,수(가) 101, 영어는 3등급, 물리(49) 지구(51) 한국사 4등급 이렇게 나와요 ㅠ  희망이 있을까요?</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>답변 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>동의대식 3.66인데 교과 어떨까요..?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>동의대식으루 3.66이 나오는데 교과로 합격 가능할까요..? ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>교과면 사람 우루루 많이 빠져서 될것같아여</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>동의대 신소재공학 vs 창원대 생물학화학융합</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>정시로 둘중에 어디 갈지 고민중인데 창원대는 국립대라서 가고싶고 동의대는 과가 괜찮아서 선배님들의 의견을 듣고 싶습니다!</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>지거국말고는 국립대 장점이 딱히..? 학비말고는 다를거없을것같은데 그냥 하고싶은과로 결정해요. 학비걱정되면 창원대가시는것도좋을듯</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>어디로 가야할까요</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>동의대 신소재 공학부와 동명대 실내건축학부 중 어디로 가야 할까요? ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>이건 따질 것도 없이 동의대 오세요...
+동명대 진짜 거의 쓰레기 취급받는 급인데...</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>군기 심한가요 ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>군기 심한가요?
+문과에서 가면 힘들까요 수학 과학 좋아하긴 합니다
+그리고 n수생 비율도 어떻게 되는지 궁금합니다!!</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>군기...는 과마다 다른거 같아요 저는 공대생인데 군기 하나도 없었구요.  잡는과도 조금 있다고 들었어요! 그런데는 아마 조금 덜렁거리면 다칠수도있는과인거 같더라고요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>작년 63명 모집 후보 182까지 붙엇고 올해 91명 모집 예비 105번 붙을 확률 알려주세요ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>제생각에는 당연히 붙을거 같은데요 !</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>동의대식 내신 산출로 4.2면  가능 할까요ㅜ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>동의대식 4.2로  추합이라도 가능할까요ㅠㅠ 신소재공학과</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>제 친구는 지가 내신 5점대라는데 종합으로 들어왔다는거 보니까 될것같은데용 그래도 아직 2학년이니까 조금 더 올리시는게 좋을듯요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>이과 내신5.1문닫고라도 들어갈수있을까요?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>동의대식 계산으로 5.1인데 문닫고라도 들어갈수있을까요?? 
+정시로갈생각이라서 3학년생기부 안써서 교과로 넣어놨는데 될가능성이있을까요?? 쌤은 작년도에 추합돌고돌아서 5.6인가? 까지 붙어서 가능성있다고해서 넣었어요</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>이번 동의대식이면 골라넣는거 아닌가?̊̈ 우린 전과목 볼때 4등급대로 문닫고꙼̈ 겨우 들어왔는데..  5.6은 종합 아님?̊̈ 교과우수전형으론 절대 못들어올꺼 같은데</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>내신 동의대로 산출했을때 4.92인데 종합쓰면 붙을까요?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>내신 동의대로 산출했을때 4.92인데 붙을 수 있을까요?
+이과입니다!</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>신소재 재학생인데 종합은 가능성 있지 않을까 싶어요 ! 교과는 좀 어려울 듯 ..? 그래도 열심히해봐요 !!</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>동의대식으로 뽑아서4.0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>교과로 신소재나 전화기 가능해요?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>전기전자는 추합을 노려보시는게 좋을것 같습니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>신소재공학부</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부 질문이요ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>제내신이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 교과전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>가능함 어마어마하게 인원 모집해서 추합이 진짜 많이 돔</t>
+        </is>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>선배님들 ㅠ</t>
+          <t>신소재공학부</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>학교에서 많이 밀어주는 학과인가요??</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>제목그대로 질문 드립니다</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>동의대는 한의대 경찰행정 공대가 우세합니다. 공대는 워낙 정부랑 기업이랑 사업연계할게 많아서 걱정ㄴㄴ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>동의대식 3.66인데 교과 어떨까요..?</t>
+          <t>신소재공학부</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>교과면 사람 우루루 많이 빠져서 될것같아여</t>
+          <t>표준점수 차이</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 표준점수가 447점으로 환산되는데 
+작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요... (최종 평균)가능성은 있늘까요??</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>그정도 차이면 모르는겁니당~ 지원해봐여</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>성비가 어떻게 돼요??</t>
+          <t>신소재공학부</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7:3이라고 하네요 ㅎㅎ 꼭 들어오시길 바랄게영</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>동의대 신소재공학 vs 창원대 생물학화학융합</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>지거국말고는 국립대 장점이 딱히..? 학비말고는 다를거없을것같은데 그냥 하고싶은과로 결정해요. 학비걱정되면 창원대가시는것도좋을듯</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>어디로 가야할까요</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>이건 따질 것도 없이 동의대 오세요...
-동명대 진짜 거의 쓰레기 취급받는 급인데...</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>군기 심한가요 ㅜㅜ</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>군기...는 과마다 다른거 같아요 저는 공대생인데 군기 하나도 없었구요.  잡는과도 조금 있다고 들었어요! 그런데는 아마 조금 덜렁거리면 다칠수도있는과인거 같더라고요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>신소재 공학</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>신소재공학부</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>제생각에는 당연히 붙을거 같은데요 !</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>신소재공학부 어떤가요</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>거의 화학과입니다 ㅎㅎ 
-과 교수님들도 꽤 훌륭한 스펙을 가지고 계시고요</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>동의대식 내신 산출로 4.2면  가능 할까요ㅜ</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>제 친구는 지가 내신 5점대라는데 종합으로 들어왔다는거 보니까 될것같은데용 그래도 아직 2학년이니까 조금 더 올리시는게 좋을듯요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>이과 내신5.1문닫고라도 들어갈수있을까요?</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>이번 동의대식이면 골라넣는거 아닌가?̊̈ 우린 전과목 볼때 4등급대로 문닫고꙼̈ 겨우 들어왔는데..  5.6은 종합 아님?̊̈ 교과우수전형으론 절대 못들어올꺼 같은데</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>학점</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>학점은 자기가 하는만큼 나오는거죠..</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>동의대 신소재공학과 어떤가요??</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>까놓고 말하면 대기업 어려움 
-와서 존나 열심히해야되는데 하기나름임
-취업은 됨 일단 어디하느냐는 님 노력에 달림
-취업스펙트럼은 넓음</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>내신 동의대로 산출했을때 4.92인데 종합쓰면 붙을까요?</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>신소재 재학생인데 종합은 가능성 있지 않을까 싶어요 ! 교과는 좀 어려울 듯 ..? 그래도 열심히해봐요 !!</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>동의대식으로 뽑아서4.0</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>전기전자는 추합을 노려보시는게 좋을것 같습니다!</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>동의대학교 신소재공학부 질문이요ㅠㅠ</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>가능함 어마어마하게 인원 모집해서 추합이 진짜 많이 돔</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>학교에서 많이 밀어주는 학과인가요??</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>동의대는 한의대 경찰행정 공대가 우세합니다. 공대는 워낙 정부랑 기업이랑 사업연계할게 많아서 걱정ㄴㄴ</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>표준점수 차이</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>그정도 차이면 모르는겁니당~ 지원해봐여</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>휴학</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>군휴학으로 가는건 가능할거같으나 다른이유는 안될거같아요 아마..</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>면접 예상질문이나 조언좀 부탁드려요</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>학생이니까 단정하게 교복입으시는게 좋아요! 주로 생기부나 자소서에 적었던 사항들중 하나정도 물어보셨고, 공동문항?에 있는거 거의 똑같이 질문하셨어용. 그리고 대답할때 되도록이면 다른곳 보지말고 교수님들만 번갈아보세요. 좋은결고ㅏ 있기를 바랄게요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
           <t>면접질문ㅠㅠ</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>일요일날 면접보러가는데 예상면접질문있나요?</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
